--- a/Experiments/Activation/33MeVTa_25Apr/CorrectionFactorData/CorrectionFactorFoilDimensions.xlsx
+++ b/Experiments/Activation/33MeVTa_25Apr/CorrectionFactorData/CorrectionFactorFoilDimensions.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,8 +468,12 @@
         <v>2E-3</v>
       </c>
       <c r="H2">
-        <f>F2/((B2/20)^2*3.1415*D2/10)</f>
-        <v>6.7450447003961997</v>
+        <f>F2/((B2/20)^2*PI()*D2/10)</f>
+        <v>6.7448457718036945</v>
+      </c>
+      <c r="I2">
+        <f>SQRT((C2/B2)^2+(E2/D2)^2+(G2/F2)^2)*H2</f>
+        <v>1.5119442265154836E-2</v>
       </c>
       <c r="J2">
         <v>0.98850000000000005</v>
@@ -498,8 +502,12 @@
         <v>2E-3</v>
       </c>
       <c r="H3">
-        <f>F3/((B3/20)^2*3.1415*D3/10)</f>
-        <v>8.5063343451446656</v>
+        <f t="shared" ref="H3:H4" si="0">F3/((B3/20)^2*PI()*D3/10)</f>
+        <v>8.506083471622869</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I8" si="1">SQRT((C3/B3)^2+(E3/D3)^2+(G3/F3)^2)*H3</f>
+        <v>4.1783159445925706E-2</v>
       </c>
       <c r="J3">
         <v>98.98</v>
@@ -528,8 +536,12 @@
         <v>2E-3</v>
       </c>
       <c r="H4">
-        <f>F4/((B4/20)^2*3.1415*D4/10)</f>
-        <v>7.0708767749056962</v>
+        <f t="shared" si="0"/>
+        <v>7.0706682366932609</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.17073011336647853</v>
       </c>
       <c r="J4">
         <v>99.998999999999995</v>
@@ -595,8 +607,12 @@
         <v>2E-3</v>
       </c>
       <c r="H7">
-        <f>F7/((B7/20)^2*3.1415*D7/10)</f>
-        <v>2.6530940075363465</v>
+        <f t="shared" ref="H7:H8" si="2">F7/((B7/20)^2*PI()*D7/10)</f>
+        <v>2.6530157610190659</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1.4079079971735062E-2</v>
       </c>
       <c r="J7">
         <v>99.998999999999995</v>
@@ -625,8 +641,12 @@
         <v>2E-3</v>
       </c>
       <c r="H8">
-        <f>F8/((B8/20)^2*3.1415*D8/10)</f>
-        <v>2.244313758378885</v>
+        <f t="shared" si="2"/>
+        <v>2.2442475678350218</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>4.0654317658476699E-2</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>

--- a/Experiments/Activation/33MeVTa_25Apr/CorrectionFactorData/CorrectionFactorFoilDimensions.xlsx
+++ b/Experiments/Activation/33MeVTa_25Apr/CorrectionFactorData/CorrectionFactorFoilDimensions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,13 +66,13 @@
     <t>Note</t>
   </si>
   <si>
-    <t>rectangularish</t>
-  </si>
-  <si>
     <t>Shop Al</t>
   </si>
   <si>
     <t>Unk purity</t>
+  </si>
+  <si>
+    <t>rectangularish (2.25 cm x 1.5 cm)</t>
   </si>
 </sst>
 </file>
@@ -393,24 +393,24 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -445,7 +445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -479,7 +479,7 @@
         <v>0.98850000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -513,7 +513,7 @@
         <v>98.98</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -547,7 +547,7 @@
         <v>99.998999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -563,11 +563,14 @@
       <c r="G5">
         <v>2E-3</v>
       </c>
+      <c r="J5">
+        <v>99.9</v>
+      </c>
       <c r="K5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -581,10 +584,10 @@
         <v>1.5589999999999999</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -618,7 +621,7 @@
         <v>99.998999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -649,7 +652,7 @@
         <v>4.0654317658476699E-2</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
